--- a/src/test/resources/excel/test.xlsx
+++ b/src/test/resources/excel/test.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitee\my-util\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF2C3B2-E197-43C2-9D9C-7C5BDE2C1406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAC3F97-6162-4F9E-A752-B13B143FF7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -357,9 +358,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,7 +371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -384,4 +385,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD6D359-98C9-48C1-9260-8ACFDCE637C0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>